--- a/Jogos_do_Dia/2024-04-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -154,15 +154,15 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -214,33 +214,33 @@
     <t>CSM Iaşi</t>
   </si>
   <si>
+    <t>Javor Ivanjica</t>
+  </si>
+  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
-    <t>Javor Ivanjica</t>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Brøndby</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
-  </si>
-  <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
     <t>Oţelul Galaţi</t>
   </si>
   <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Ajax II</t>
   </si>
   <si>
     <t>AZ II</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>Racing Santander</t>
   </si>
   <si>
@@ -262,31 +262,31 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Mladost Lučani</t>
+  </si>
+  <si>
     <t>Cherno More</t>
   </si>
   <si>
-    <t>Mladost Lučani</t>
+    <t>Górnik Zabrze</t>
+  </si>
+  <si>
+    <t>Porto II</t>
   </si>
   <si>
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>Porto II</t>
-  </si>
-  <si>
-    <t>Górnik Zabrze</t>
-  </si>
-  <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
     <t>Emmen</t>
-  </si>
-  <si>
-    <t>Willem II</t>
   </si>
   <si>
     <t>AD Alcorcón</t>
@@ -826,13 +826,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="K2">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="M2">
         <v>1.56</v>
@@ -853,10 +853,10 @@
         <v>2.45</v>
       </c>
       <c r="S2">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -957,10 +957,10 @@
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -984,10 +984,10 @@
         <v>2.84</v>
       </c>
       <c r="S3">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1088,13 +1088,13 @@
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="K4">
         <v>3.25</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M4">
         <v>1.41</v>
@@ -1115,10 +1115,10 @@
         <v>3.4</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U4">
         <v>1.73</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>45390</v>
@@ -1201,7 +1201,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -1210,120 +1210,120 @@
         <v>82</v>
       </c>
       <c r="G5">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.91</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T5">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="AA5">
+        <v>1.07</v>
+      </c>
+      <c r="AB5">
         <v>1.38</v>
       </c>
-      <c r="AB5">
-        <v>1.49</v>
-      </c>
       <c r="AC5">
-        <v>1.64</v>
+        <v>0.93</v>
       </c>
       <c r="AD5">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="AE5">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>45390</v>
@@ -1332,7 +1332,7 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1341,115 +1341,115 @@
         <v>83</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2.3</v>
+      </c>
+      <c r="M6">
+        <v>1.53</v>
+      </c>
+      <c r="N6">
+        <v>2.37</v>
+      </c>
+      <c r="O6">
+        <v>1.06</v>
+      </c>
+      <c r="P6">
+        <v>6.8</v>
+      </c>
+      <c r="Q6">
+        <v>1.42</v>
+      </c>
+      <c r="R6">
+        <v>2.7</v>
+      </c>
+      <c r="S6">
         <v>2.25</v>
       </c>
-      <c r="K6">
-        <v>3.1</v>
-      </c>
-      <c r="L6">
-        <v>3.25</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>2.18</v>
-      </c>
       <c r="T6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z6">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="AA6">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="AB6">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AC6">
-        <v>0.93</v>
+        <v>1.64</v>
       </c>
       <c r="AD6">
-        <v>2.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1463,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -1472,115 +1472,115 @@
         <v>84</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="H7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="J7">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
-        <v>4.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>2.75</v>
+      </c>
+      <c r="O7">
+        <v>1.05</v>
+      </c>
+      <c r="P7">
+        <v>8.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.3</v>
+      </c>
+      <c r="R7">
+        <v>3.3</v>
+      </c>
+      <c r="S7">
+        <v>1.96</v>
+      </c>
+      <c r="T7">
+        <v>1.88</v>
+      </c>
+      <c r="U7">
+        <v>1.7</v>
+      </c>
+      <c r="V7">
+        <v>2.05</v>
+      </c>
+      <c r="W7">
+        <v>1.35</v>
+      </c>
+      <c r="X7">
         <v>1.33</v>
       </c>
-      <c r="N7">
-        <v>3.25</v>
-      </c>
-      <c r="O7">
-        <v>1.04</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>1.22</v>
-      </c>
-      <c r="R7">
-        <v>4.2</v>
-      </c>
-      <c r="S7">
-        <v>1.67</v>
-      </c>
-      <c r="T7">
-        <v>2.15</v>
-      </c>
-      <c r="U7">
-        <v>1.8</v>
-      </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
-      <c r="W7">
-        <v>1.08</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>1.65</v>
+      </c>
+      <c r="Z7">
+        <v>1.54</v>
+      </c>
+      <c r="AA7">
         <v>1.15</v>
       </c>
-      <c r="Y7">
-        <v>2.8</v>
-      </c>
-      <c r="Z7">
-        <v>2.09</v>
-      </c>
-      <c r="AA7">
-        <v>0.91</v>
-      </c>
       <c r="AB7">
+        <v>1.75</v>
+      </c>
+      <c r="AC7">
+        <v>1.34</v>
+      </c>
+      <c r="AD7">
+        <v>3.09</v>
+      </c>
+      <c r="AE7">
         <v>1.59</v>
       </c>
-      <c r="AC7">
-        <v>1.16</v>
-      </c>
-      <c r="AD7">
-        <v>2.75</v>
-      </c>
-      <c r="AE7">
-        <v>1.35</v>
-      </c>
       <c r="AF7">
-        <v>9.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG7">
-        <v>5.1</v>
+        <v>2.79</v>
       </c>
       <c r="AH7">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AI7">
-        <v>3.36</v>
+        <v>3.6</v>
       </c>
       <c r="AJ7">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AK7">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="AL7">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AM7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN7">
-        <v>2.51</v>
+        <v>2.06</v>
       </c>
       <c r="AO7">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AP7">
-        <v>3.44</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1612,13 +1612,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
         <v>1.42</v>
@@ -1639,10 +1639,10 @@
         <v>3.3</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T8">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U8">
         <v>1.7</v>
@@ -1675,31 +1675,31 @@
         <v>2.87</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AN8">
         <v>1.98</v>
@@ -1708,10 +1708,10 @@
         <v>1.82</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1725,7 +1725,7 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
@@ -1734,115 +1734,115 @@
         <v>86</v>
       </c>
       <c r="G9">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I9">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N9">
+        <v>3.25</v>
+      </c>
+      <c r="O9">
+        <v>1.04</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>1.22</v>
+      </c>
+      <c r="R9">
+        <v>4.2</v>
+      </c>
+      <c r="S9">
+        <v>1.7</v>
+      </c>
+      <c r="T9">
+        <v>2.15</v>
+      </c>
+      <c r="U9">
+        <v>1.8</v>
+      </c>
+      <c r="V9">
+        <v>1.95</v>
+      </c>
+      <c r="W9">
+        <v>1.08</v>
+      </c>
+      <c r="X9">
+        <v>1.15</v>
+      </c>
+      <c r="Y9">
+        <v>2.8</v>
+      </c>
+      <c r="Z9">
+        <v>2.09</v>
+      </c>
+      <c r="AA9">
+        <v>0.91</v>
+      </c>
+      <c r="AB9">
+        <v>1.59</v>
+      </c>
+      <c r="AC9">
+        <v>1.16</v>
+      </c>
+      <c r="AD9">
         <v>2.75</v>
       </c>
-      <c r="O9">
-        <v>1.05</v>
-      </c>
-      <c r="P9">
-        <v>8.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.3</v>
-      </c>
-      <c r="R9">
-        <v>3.3</v>
-      </c>
-      <c r="S9">
-        <v>1.89</v>
-      </c>
-      <c r="T9">
-        <v>1.88</v>
-      </c>
-      <c r="U9">
-        <v>1.7</v>
-      </c>
-      <c r="V9">
-        <v>2.05</v>
-      </c>
-      <c r="W9">
+      <c r="AE9">
         <v>1.35</v>
       </c>
-      <c r="X9">
-        <v>1.33</v>
-      </c>
-      <c r="Y9">
-        <v>1.65</v>
-      </c>
-      <c r="Z9">
-        <v>1.54</v>
-      </c>
-      <c r="AA9">
-        <v>1.15</v>
-      </c>
-      <c r="AB9">
-        <v>1.75</v>
-      </c>
-      <c r="AC9">
-        <v>1.34</v>
-      </c>
-      <c r="AD9">
-        <v>3.09</v>
-      </c>
-      <c r="AE9">
-        <v>1.59</v>
-      </c>
       <c r="AF9">
-        <v>9.300000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="AG9">
-        <v>2.79</v>
+        <v>5.1</v>
       </c>
       <c r="AH9">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AI9">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="AJ9">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AK9">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AL9">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AM9">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN9">
-        <v>2.06</v>
+        <v>2.51</v>
       </c>
       <c r="AO9">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AP9">
-        <v>2.67</v>
+        <v>3.44</v>
       </c>
       <c r="AQ9">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1874,13 +1874,13 @@
         <v>4.2</v>
       </c>
       <c r="J10">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="K10">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
         <v>1.5</v>
@@ -1901,7 +1901,7 @@
         <v>2.55</v>
       </c>
       <c r="S10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T10">
         <v>1.5</v>
@@ -1996,22 +1996,22 @@
         <v>88</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="J11">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2020,16 +2020,16 @@
         <v>3.5</v>
       </c>
       <c r="O11">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P11">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R11">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="S11">
         <v>1.57</v>
@@ -2038,34 +2038,34 @@
         <v>2.35</v>
       </c>
       <c r="U11">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V11">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W11">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="X11">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y11">
-        <v>1.9</v>
+        <v>1.09</v>
       </c>
       <c r="Z11">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AA11">
-        <v>0.6</v>
+        <v>1.94</v>
       </c>
       <c r="AB11">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AC11">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AD11">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2077,34 +2077,34 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AI11">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AJ11">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AK11">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AL11">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AM11">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AN11">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AO11">
         <v>1.71</v>
       </c>
       <c r="AP11">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AQ11">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2127,46 +2127,46 @@
         <v>89</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="J12">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="K12">
         <v>3.5</v>
       </c>
       <c r="L12">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
         <v>1.02</v>
       </c>
       <c r="P12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q12">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="R12">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="S12">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="U12">
         <v>1.53</v>
@@ -2175,67 +2175,67 @@
         <v>2.38</v>
       </c>
       <c r="W12">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="X12">
         <v>1.25</v>
       </c>
       <c r="Y12">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA12">
+        <v>0.6</v>
+      </c>
+      <c r="AB12">
+        <v>1.56</v>
+      </c>
+      <c r="AC12">
+        <v>1.08</v>
+      </c>
+      <c r="AD12">
+        <v>2.64</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>1.19</v>
       </c>
-      <c r="AB12">
-        <v>1.61</v>
-      </c>
-      <c r="AC12">
-        <v>1.45</v>
-      </c>
-      <c r="AD12">
-        <v>3.06</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>1.18</v>
-      </c>
       <c r="AI12">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AJ12">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AK12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AL12">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AM12">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO12">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP12">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AQ12">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2258,115 +2258,115 @@
         <v>90</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
+        <v>2.7</v>
+      </c>
+      <c r="M13">
+        <v>1.3</v>
+      </c>
+      <c r="N13">
+        <v>3.4</v>
+      </c>
+      <c r="O13">
+        <v>1.02</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>1.18</v>
+      </c>
+      <c r="R13">
+        <v>4.25</v>
+      </c>
+      <c r="S13">
+        <v>1.62</v>
+      </c>
+      <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
+        <v>1.53</v>
+      </c>
+      <c r="V13">
+        <v>2.38</v>
+      </c>
+      <c r="W13">
+        <v>1.45</v>
+      </c>
+      <c r="X13">
+        <v>1.25</v>
+      </c>
+      <c r="Y13">
+        <v>1.52</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>1.19</v>
+      </c>
+      <c r="AB13">
+        <v>1.61</v>
+      </c>
+      <c r="AC13">
+        <v>1.45</v>
+      </c>
+      <c r="AD13">
+        <v>3.06</v>
+      </c>
+      <c r="AE13">
+        <v>1.83</v>
+      </c>
+      <c r="AF13">
+        <v>7.5</v>
+      </c>
+      <c r="AG13">
+        <v>2.24</v>
+      </c>
+      <c r="AH13">
+        <v>1.18</v>
+      </c>
+      <c r="AI13">
+        <v>4.6</v>
+      </c>
+      <c r="AJ13">
         <v>1.33</v>
       </c>
-      <c r="M13">
-        <v>1.29</v>
-      </c>
-      <c r="N13">
-        <v>3.5</v>
-      </c>
-      <c r="O13">
-        <v>1.01</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13">
-        <v>1.15</v>
-      </c>
-      <c r="R13">
-        <v>4.75</v>
-      </c>
-      <c r="S13">
-        <v>1.57</v>
-      </c>
-      <c r="T13">
-        <v>2.35</v>
-      </c>
-      <c r="U13">
-        <v>1.83</v>
-      </c>
-      <c r="V13">
-        <v>1.83</v>
-      </c>
-      <c r="W13">
+      <c r="AK13">
         <v>3.1</v>
       </c>
-      <c r="X13">
-        <v>1.17</v>
-      </c>
-      <c r="Y13">
-        <v>1.09</v>
-      </c>
-      <c r="Z13">
-        <v>1.13</v>
-      </c>
-      <c r="AA13">
-        <v>1.94</v>
-      </c>
-      <c r="AB13">
-        <v>1.36</v>
-      </c>
-      <c r="AC13">
-        <v>1.46</v>
-      </c>
-      <c r="AD13">
-        <v>2.82</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>1.2</v>
-      </c>
-      <c r="AI13">
-        <v>4.35</v>
-      </c>
-      <c r="AJ13">
-        <v>1.37</v>
-      </c>
-      <c r="AK13">
-        <v>2.95</v>
-      </c>
       <c r="AL13">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AM13">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AN13">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AO13">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AP13">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2398,13 +2398,13 @@
         <v>4.75</v>
       </c>
       <c r="J14">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M14">
         <v>1.45</v>
@@ -2425,10 +2425,10 @@
         <v>2.95</v>
       </c>
       <c r="S14">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="T14">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="U14">
         <v>1.95</v>
@@ -2529,13 +2529,13 @@
         <v>6.77</v>
       </c>
       <c r="J15">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="K15">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L15">
-        <v>5.4</v>
+        <v>6.25</v>
       </c>
       <c r="M15">
         <v>1.32</v>
@@ -2556,10 +2556,10 @@
         <v>4.3</v>
       </c>
       <c r="S15">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
         <v>1.75</v>
@@ -2660,13 +2660,13 @@
         <v>2</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="K16">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L16">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -2687,10 +2687,10 @@
         <v>4.2</v>
       </c>
       <c r="S16">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="T16">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="U16">
         <v>1.91</v>
@@ -2791,13 +2791,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L17">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
         <v>0</v>

--- a/Jogos_do_Dia/2024-04-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -154,27 +154,27 @@
     <t>Romania Liga I</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
+    <t>Italy Serie A</t>
+  </si>
+  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
-    <t>Italy Serie A</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -214,42 +214,42 @@
     <t>CSM Iaşi</t>
   </si>
   <si>
+    <t>Lokomotiv Plovdiv</t>
+  </si>
+  <si>
     <t>Javor Ivanjica</t>
   </si>
   <si>
-    <t>Lokomotiv Plovdiv</t>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Zagłębie Lubin</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
     <t>Oţelul Galaţi</t>
   </si>
   <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
     <t>Racing Santander</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Casa Pia</t>
   </si>
   <si>
@@ -262,40 +262,40 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Cherno More</t>
+  </si>
+  <si>
     <t>Mladost Lučani</t>
   </si>
   <si>
-    <t>Cherno More</t>
+    <t>Silkeborg</t>
+  </si>
+  <si>
+    <t>Porto II</t>
   </si>
   <si>
     <t>Górnik Zabrze</t>
   </si>
   <si>
-    <t>Porto II</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
     <t>Willem II</t>
   </si>
   <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
     <t>AD Alcorcón</t>
   </si>
   <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
     <t>Troyes</t>
-  </si>
-  <si>
-    <t>Inter Milan</t>
   </si>
   <si>
     <t>GD Estoril Praia</t>
@@ -826,13 +826,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M2">
         <v>1.56</v>
@@ -957,13 +957,13 @@
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -984,10 +984,10 @@
         <v>2.84</v>
       </c>
       <c r="S3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1088,13 +1088,13 @@
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L4">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
         <v>1.41</v>
@@ -1115,10 +1115,10 @@
         <v>3.4</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T4">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U4">
         <v>1.73</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>45390</v>
@@ -1201,7 +1201,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -1210,120 +1210,120 @@
         <v>82</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
+        <v>3.1</v>
+      </c>
+      <c r="K5">
+        <v>2.9</v>
+      </c>
+      <c r="L5">
         <v>2.3</v>
       </c>
-      <c r="K5">
-        <v>3.2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S5">
+        <v>2.25</v>
+      </c>
+      <c r="T5">
+        <v>1.57</v>
+      </c>
+      <c r="U5">
+        <v>1.95</v>
+      </c>
+      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="W5">
+        <v>1.45</v>
+      </c>
+      <c r="X5">
+        <v>1.3</v>
+      </c>
+      <c r="Y5">
+        <v>1.33</v>
+      </c>
+      <c r="Z5">
+        <v>1.92</v>
+      </c>
+      <c r="AA5">
+        <v>1.38</v>
+      </c>
+      <c r="AB5">
+        <v>1.49</v>
+      </c>
+      <c r="AC5">
+        <v>1.64</v>
+      </c>
+      <c r="AD5">
+        <v>3.13</v>
+      </c>
+      <c r="AE5">
+        <v>2.39</v>
+      </c>
+      <c r="AF5">
+        <v>8.4</v>
+      </c>
+      <c r="AG5">
+        <v>1.76</v>
+      </c>
+      <c r="AH5">
+        <v>1.36</v>
+      </c>
+      <c r="AI5">
+        <v>2.79</v>
+      </c>
+      <c r="AJ5">
+        <v>1.72</v>
+      </c>
+      <c r="AK5">
+        <v>2.09</v>
+      </c>
+      <c r="AL5">
         <v>2.15</v>
       </c>
-      <c r="T5">
-        <v>1.65</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>1.43</v>
-      </c>
-      <c r="AA5">
-        <v>1.07</v>
-      </c>
-      <c r="AB5">
-        <v>1.38</v>
-      </c>
-      <c r="AC5">
-        <v>0.93</v>
-      </c>
-      <c r="AD5">
-        <v>2.31</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>45390</v>
@@ -1332,7 +1332,7 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1341,115 +1341,115 @@
         <v>83</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J6">
+        <v>2.15</v>
+      </c>
+      <c r="K6">
+        <v>3.1</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>2.3</v>
-      </c>
       <c r="M6">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="AA6">
+        <v>1.07</v>
+      </c>
+      <c r="AB6">
         <v>1.38</v>
       </c>
-      <c r="AB6">
-        <v>1.49</v>
-      </c>
       <c r="AC6">
-        <v>1.64</v>
+        <v>0.93</v>
       </c>
       <c r="AD6">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="AE6">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1463,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -1472,115 +1472,115 @@
         <v>84</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N7">
+        <v>3.25</v>
+      </c>
+      <c r="O7">
+        <v>1.04</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>1.22</v>
+      </c>
+      <c r="R7">
+        <v>4.2</v>
+      </c>
+      <c r="S7">
+        <v>1.65</v>
+      </c>
+      <c r="T7">
+        <v>2.1</v>
+      </c>
+      <c r="U7">
+        <v>1.8</v>
+      </c>
+      <c r="V7">
+        <v>1.95</v>
+      </c>
+      <c r="W7">
+        <v>1.08</v>
+      </c>
+      <c r="X7">
+        <v>1.15</v>
+      </c>
+      <c r="Y7">
+        <v>2.8</v>
+      </c>
+      <c r="Z7">
+        <v>2.09</v>
+      </c>
+      <c r="AA7">
+        <v>0.91</v>
+      </c>
+      <c r="AB7">
+        <v>1.59</v>
+      </c>
+      <c r="AC7">
+        <v>1.16</v>
+      </c>
+      <c r="AD7">
         <v>2.75</v>
       </c>
-      <c r="O7">
-        <v>1.05</v>
-      </c>
-      <c r="P7">
-        <v>8.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.3</v>
-      </c>
-      <c r="R7">
-        <v>3.3</v>
-      </c>
-      <c r="S7">
-        <v>1.96</v>
-      </c>
-      <c r="T7">
-        <v>1.88</v>
-      </c>
-      <c r="U7">
-        <v>1.7</v>
-      </c>
-      <c r="V7">
-        <v>2.05</v>
-      </c>
-      <c r="W7">
+      <c r="AE7">
         <v>1.35</v>
       </c>
-      <c r="X7">
-        <v>1.33</v>
-      </c>
-      <c r="Y7">
-        <v>1.65</v>
-      </c>
-      <c r="Z7">
-        <v>1.54</v>
-      </c>
-      <c r="AA7">
-        <v>1.15</v>
-      </c>
-      <c r="AB7">
-        <v>1.75</v>
-      </c>
-      <c r="AC7">
-        <v>1.34</v>
-      </c>
-      <c r="AD7">
-        <v>3.09</v>
-      </c>
-      <c r="AE7">
-        <v>1.59</v>
-      </c>
       <c r="AF7">
-        <v>9.300000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="AG7">
-        <v>2.79</v>
+        <v>5.1</v>
       </c>
       <c r="AH7">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AI7">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="AJ7">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AK7">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AL7">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AM7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN7">
-        <v>2.06</v>
+        <v>2.51</v>
       </c>
       <c r="AO7">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AP7">
-        <v>2.67</v>
+        <v>3.44</v>
       </c>
       <c r="AQ7">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1639,10 +1639,10 @@
         <v>3.3</v>
       </c>
       <c r="S8">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T8">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U8">
         <v>1.7</v>
@@ -1725,7 +1725,7 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
@@ -1734,115 +1734,115 @@
         <v>86</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="L9">
-        <v>5.75</v>
+        <v>3.05</v>
       </c>
       <c r="M9">
+        <v>1.4</v>
+      </c>
+      <c r="N9">
+        <v>2.75</v>
+      </c>
+      <c r="O9">
+        <v>1.05</v>
+      </c>
+      <c r="P9">
+        <v>8.5</v>
+      </c>
+      <c r="Q9">
+        <v>1.3</v>
+      </c>
+      <c r="R9">
+        <v>3.3</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>1.85</v>
+      </c>
+      <c r="U9">
+        <v>1.7</v>
+      </c>
+      <c r="V9">
+        <v>2.05</v>
+      </c>
+      <c r="W9">
+        <v>1.35</v>
+      </c>
+      <c r="X9">
         <v>1.33</v>
       </c>
-      <c r="N9">
-        <v>3.25</v>
-      </c>
-      <c r="O9">
-        <v>1.04</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>1.22</v>
-      </c>
-      <c r="R9">
-        <v>4.2</v>
-      </c>
-      <c r="S9">
+      <c r="Y9">
+        <v>1.65</v>
+      </c>
+      <c r="Z9">
+        <v>1.54</v>
+      </c>
+      <c r="AA9">
+        <v>1.15</v>
+      </c>
+      <c r="AB9">
+        <v>1.75</v>
+      </c>
+      <c r="AC9">
+        <v>1.34</v>
+      </c>
+      <c r="AD9">
+        <v>3.09</v>
+      </c>
+      <c r="AE9">
+        <v>1.59</v>
+      </c>
+      <c r="AF9">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>2.79</v>
+      </c>
+      <c r="AH9">
+        <v>1.25</v>
+      </c>
+      <c r="AI9">
+        <v>3.6</v>
+      </c>
+      <c r="AJ9">
+        <v>1.36</v>
+      </c>
+      <c r="AK9">
+        <v>2.79</v>
+      </c>
+      <c r="AL9">
         <v>1.7</v>
       </c>
-      <c r="T9">
-        <v>2.15</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
-      <c r="W9">
-        <v>1.08</v>
-      </c>
-      <c r="X9">
-        <v>1.15</v>
-      </c>
-      <c r="Y9">
-        <v>2.8</v>
-      </c>
-      <c r="Z9">
-        <v>2.09</v>
-      </c>
-      <c r="AA9">
-        <v>0.91</v>
-      </c>
-      <c r="AB9">
-        <v>1.59</v>
-      </c>
-      <c r="AC9">
-        <v>1.16</v>
-      </c>
-      <c r="AD9">
-        <v>2.75</v>
-      </c>
-      <c r="AE9">
-        <v>1.35</v>
-      </c>
-      <c r="AF9">
-        <v>9.25</v>
-      </c>
-      <c r="AG9">
-        <v>5.1</v>
-      </c>
-      <c r="AH9">
-        <v>1.32</v>
-      </c>
-      <c r="AI9">
-        <v>3.36</v>
-      </c>
-      <c r="AJ9">
-        <v>1.58</v>
-      </c>
-      <c r="AK9">
-        <v>2.38</v>
-      </c>
-      <c r="AL9">
-        <v>1.77</v>
-      </c>
       <c r="AM9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN9">
-        <v>2.51</v>
+        <v>2.06</v>
       </c>
       <c r="AO9">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AP9">
-        <v>3.44</v>
+        <v>2.67</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1874,13 +1874,13 @@
         <v>4.2</v>
       </c>
       <c r="J10">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
         <v>1.5</v>
@@ -1904,7 +1904,7 @@
         <v>2.4</v>
       </c>
       <c r="T10">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U10">
         <v>2.05</v>
@@ -1996,22 +1996,22 @@
         <v>88</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
         <v>5</v>
-      </c>
-      <c r="L11">
-        <v>1.33</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2020,16 +2020,16 @@
         <v>3.5</v>
       </c>
       <c r="O11">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q11">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="R11">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="S11">
         <v>1.57</v>
@@ -2038,73 +2038,73 @@
         <v>2.35</v>
       </c>
       <c r="U11">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V11">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="W11">
-        <v>3.1</v>
+        <v>1.22</v>
       </c>
       <c r="X11">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="Z11">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="AA11">
-        <v>1.94</v>
+        <v>0.6</v>
       </c>
       <c r="AB11">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AC11">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="AD11">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH11">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AI11">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AJ11">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AK11">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AL11">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AM11">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AN11">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AO11">
         <v>1.71</v>
       </c>
       <c r="AP11">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2127,46 +2127,46 @@
         <v>89</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>2.3</v>
       </c>
-      <c r="H12">
-        <v>2.4</v>
-      </c>
       <c r="I12">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K12">
         <v>3.5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="M12">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O12">
         <v>1.02</v>
       </c>
       <c r="P12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q12">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="R12">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="S12">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T12">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.53</v>
@@ -2175,67 +2175,67 @@
         <v>2.38</v>
       </c>
       <c r="W12">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="X12">
         <v>1.25</v>
       </c>
       <c r="Y12">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="Z12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>0.6</v>
+        <v>1.19</v>
       </c>
       <c r="AB12">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AC12">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="AD12">
-        <v>2.64</v>
+        <v>3.06</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH12">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AI12">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AJ12">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AK12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AL12">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AM12">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AN12">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AO12">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AP12">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AQ12">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2258,115 +2258,115 @@
         <v>90</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1.33</v>
+      </c>
+      <c r="M13">
+        <v>1.29</v>
+      </c>
+      <c r="N13">
+        <v>3.5</v>
+      </c>
+      <c r="O13">
+        <v>1.01</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>1.15</v>
+      </c>
+      <c r="R13">
+        <v>4.75</v>
+      </c>
+      <c r="S13">
+        <v>1.57</v>
+      </c>
+      <c r="T13">
+        <v>2.35</v>
+      </c>
+      <c r="U13">
+        <v>1.83</v>
+      </c>
+      <c r="V13">
+        <v>1.83</v>
+      </c>
+      <c r="W13">
         <v>3.1</v>
       </c>
-      <c r="J13">
-        <v>2.5</v>
-      </c>
-      <c r="K13">
+      <c r="X13">
+        <v>1.17</v>
+      </c>
+      <c r="Y13">
+        <v>1.09</v>
+      </c>
+      <c r="Z13">
+        <v>1.13</v>
+      </c>
+      <c r="AA13">
+        <v>1.94</v>
+      </c>
+      <c r="AB13">
+        <v>1.36</v>
+      </c>
+      <c r="AC13">
+        <v>1.46</v>
+      </c>
+      <c r="AD13">
+        <v>2.82</v>
+      </c>
+      <c r="AE13">
         <v>3.5</v>
       </c>
-      <c r="L13">
-        <v>2.7</v>
-      </c>
-      <c r="M13">
-        <v>1.3</v>
-      </c>
-      <c r="N13">
-        <v>3.4</v>
-      </c>
-      <c r="O13">
-        <v>1.02</v>
-      </c>
-      <c r="P13">
-        <v>16</v>
-      </c>
-      <c r="Q13">
-        <v>1.18</v>
-      </c>
-      <c r="R13">
-        <v>4.25</v>
-      </c>
-      <c r="S13">
-        <v>1.62</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.53</v>
-      </c>
-      <c r="V13">
-        <v>2.38</v>
-      </c>
-      <c r="W13">
-        <v>1.45</v>
-      </c>
-      <c r="X13">
-        <v>1.25</v>
-      </c>
-      <c r="Y13">
-        <v>1.52</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>1.19</v>
-      </c>
-      <c r="AB13">
-        <v>1.61</v>
-      </c>
-      <c r="AC13">
-        <v>1.45</v>
-      </c>
-      <c r="AD13">
-        <v>3.06</v>
-      </c>
-      <c r="AE13">
-        <v>1.83</v>
-      </c>
       <c r="AF13">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AG13">
-        <v>2.24</v>
+        <v>1.35</v>
       </c>
       <c r="AH13">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI13">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AJ13">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AK13">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AL13">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AM13">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AO13">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP13">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2401,10 +2401,10 @@
         <v>1.8</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M14">
         <v>1.45</v>
@@ -2425,7 +2425,7 @@
         <v>2.95</v>
       </c>
       <c r="S14">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
         <v>1.61</v>
@@ -2520,115 +2520,115 @@
         <v>92</v>
       </c>
       <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>2.38</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1.53</v>
+      </c>
+      <c r="M15">
+        <v>1.33</v>
+      </c>
+      <c r="N15">
+        <v>3.25</v>
+      </c>
+      <c r="O15">
+        <v>1.05</v>
+      </c>
+      <c r="P15">
+        <v>15.5</v>
+      </c>
+      <c r="Q15">
+        <v>1.27</v>
+      </c>
+      <c r="R15">
+        <v>4.2</v>
+      </c>
+      <c r="S15">
+        <v>1.73</v>
+      </c>
+      <c r="T15">
+        <v>2.05</v>
+      </c>
+      <c r="U15">
         <v>1.91</v>
       </c>
-      <c r="H15">
-        <v>2.57</v>
-      </c>
-      <c r="I15">
-        <v>6.77</v>
-      </c>
-      <c r="J15">
-        <v>1.46</v>
-      </c>
-      <c r="K15">
-        <v>4.5</v>
-      </c>
-      <c r="L15">
-        <v>6.25</v>
-      </c>
-      <c r="M15">
-        <v>1.32</v>
-      </c>
-      <c r="N15">
-        <v>3.1</v>
-      </c>
-      <c r="O15">
-        <v>1.03</v>
-      </c>
-      <c r="P15">
+      <c r="V15">
+        <v>1.91</v>
+      </c>
+      <c r="W15">
+        <v>2.8</v>
+      </c>
+      <c r="X15">
+        <v>1.23</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>0.8</v>
+      </c>
+      <c r="AA15">
+        <v>2.71</v>
+      </c>
+      <c r="AB15">
+        <v>1.41</v>
+      </c>
+      <c r="AC15">
+        <v>1.43</v>
+      </c>
+      <c r="AD15">
+        <v>2.84</v>
+      </c>
+      <c r="AE15">
+        <v>3.85</v>
+      </c>
+      <c r="AF15">
         <v>9</v>
       </c>
-      <c r="Q15">
-        <v>1.17</v>
-      </c>
-      <c r="R15">
-        <v>4.3</v>
-      </c>
-      <c r="S15">
-        <v>1.75</v>
-      </c>
-      <c r="T15">
-        <v>1.95</v>
-      </c>
-      <c r="U15">
-        <v>1.75</v>
-      </c>
-      <c r="V15">
-        <v>1.93</v>
-      </c>
-      <c r="W15">
-        <v>1.11</v>
-      </c>
-      <c r="X15">
-        <v>1.15</v>
-      </c>
-      <c r="Y15">
-        <v>2.62</v>
-      </c>
-      <c r="Z15">
-        <v>1.93</v>
-      </c>
-      <c r="AA15">
-        <v>0.8</v>
-      </c>
-      <c r="AB15">
-        <v>1.71</v>
-      </c>
-      <c r="AC15">
-        <v>0.97</v>
-      </c>
-      <c r="AD15">
-        <v>2.68</v>
-      </c>
-      <c r="AE15">
-        <v>1.18</v>
-      </c>
-      <c r="AF15">
-        <v>12.7</v>
-      </c>
       <c r="AG15">
-        <v>6.27</v>
+        <v>1.37</v>
       </c>
       <c r="AH15">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AI15">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="AJ15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AK15">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="AL15">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AM15">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AN15">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AO15">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AP15">
-        <v>3.12</v>
+        <v>2.84</v>
       </c>
       <c r="AQ15">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2651,115 +2651,115 @@
         <v>93</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>1.91</v>
       </c>
       <c r="H16">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>6.77</v>
       </c>
       <c r="J16">
-        <v>6.25</v>
+        <v>1.44</v>
       </c>
       <c r="K16">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L16">
-        <v>1.53</v>
+        <v>6.46</v>
       </c>
       <c r="M16">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P16">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="Q16">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="R16">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S16">
+        <v>1.57</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
+        <v>1.93</v>
+      </c>
+      <c r="W16">
+        <v>1.11</v>
+      </c>
+      <c r="X16">
+        <v>1.15</v>
+      </c>
+      <c r="Y16">
+        <v>2.62</v>
+      </c>
+      <c r="Z16">
+        <v>1.93</v>
+      </c>
+      <c r="AA16">
+        <v>0.8</v>
+      </c>
+      <c r="AB16">
         <v>1.71</v>
       </c>
-      <c r="T16">
-        <v>2.01</v>
-      </c>
-      <c r="U16">
-        <v>1.91</v>
-      </c>
-      <c r="V16">
-        <v>1.91</v>
-      </c>
-      <c r="W16">
-        <v>2.8</v>
-      </c>
-      <c r="X16">
-        <v>1.23</v>
-      </c>
-      <c r="Y16">
-        <v>1.13</v>
-      </c>
-      <c r="Z16">
-        <v>0.8</v>
-      </c>
-      <c r="AA16">
-        <v>2.71</v>
-      </c>
-      <c r="AB16">
-        <v>1.41</v>
-      </c>
       <c r="AC16">
-        <v>1.43</v>
+        <v>0.97</v>
       </c>
       <c r="AD16">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="AE16">
-        <v>3.85</v>
+        <v>1.18</v>
       </c>
       <c r="AF16">
-        <v>9</v>
+        <v>12.7</v>
       </c>
       <c r="AG16">
-        <v>1.37</v>
+        <v>6.27</v>
       </c>
       <c r="AH16">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AI16">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="AJ16">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AK16">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="AL16">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AM16">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AN16">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AO16">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AP16">
-        <v>2.84</v>
+        <v>3.12</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2791,13 +2791,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="K17">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="U17">
         <v>0</v>
